--- a/data/file_life_expectancy_2022.xlsx
+++ b/data/file_life_expectancy_2022.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aditharun/Documents/GitHub/cdc-wonder-mortality/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0373720D-5846-2B48-8AFB-933FA87B413A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11F8714B-1830-434F-AEE4-6C9E634A81C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21160" yWindow="1920" windowWidth="17960" windowHeight="16820" xr2:uid="{8171C97C-D47A-FB4A-ACFF-54397E0B4A47}"/>
+    <workbookView xWindow="22420" yWindow="500" windowWidth="15200" windowHeight="19480" xr2:uid="{8171C97C-D47A-FB4A-ACFF-54397E0B4A47}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -427,7 +427,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{655D5682-A18C-6243-8825-50FC29B15CE1}">
   <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
@@ -458,7 +458,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>80.2</v>
+        <v>80.099999999999994</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
@@ -472,7 +472,7 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>79.599999999999994</v>
+        <v>79.400000000000006</v>
       </c>
       <c r="D3" t="s">
         <v>4</v>
@@ -486,7 +486,7 @@
         <v>5</v>
       </c>
       <c r="C4">
-        <v>75.7</v>
+        <v>75.5</v>
       </c>
       <c r="D4" t="s">
         <v>4</v>
@@ -500,7 +500,7 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>70.7</v>
+        <v>79.5</v>
       </c>
       <c r="D5" t="s">
         <v>4</v>
@@ -514,7 +514,7 @@
         <v>15</v>
       </c>
       <c r="C6">
-        <v>65.8</v>
+        <v>65.599999999999994</v>
       </c>
       <c r="D6" t="s">
         <v>4</v>
@@ -528,7 +528,7 @@
         <v>20</v>
       </c>
       <c r="C7">
-        <v>60.9</v>
+        <v>60.7</v>
       </c>
       <c r="D7" t="s">
         <v>4</v>
@@ -542,7 +542,7 @@
         <v>25</v>
       </c>
       <c r="C8">
-        <v>56</v>
+        <v>55.8</v>
       </c>
       <c r="D8" t="s">
         <v>4</v>
@@ -556,7 +556,7 @@
         <v>30</v>
       </c>
       <c r="C9">
-        <v>51.3</v>
+        <v>51</v>
       </c>
       <c r="D9" t="s">
         <v>4</v>
@@ -570,7 +570,7 @@
         <v>35</v>
       </c>
       <c r="C10">
-        <v>46.7</v>
+        <v>46.3</v>
       </c>
       <c r="D10" t="s">
         <v>4</v>
@@ -584,7 +584,7 @@
         <v>40</v>
       </c>
       <c r="C11">
-        <v>42.1</v>
+        <v>41.7</v>
       </c>
       <c r="D11" t="s">
         <v>4</v>
@@ -598,7 +598,7 @@
         <v>45</v>
       </c>
       <c r="C12">
-        <v>37.6</v>
+        <v>37.1</v>
       </c>
       <c r="D12" t="s">
         <v>4</v>
@@ -612,7 +612,7 @@
         <v>50</v>
       </c>
       <c r="C13">
-        <v>33.1</v>
+        <v>32.6</v>
       </c>
       <c r="D13" t="s">
         <v>4</v>
@@ -626,7 +626,7 @@
         <v>55</v>
       </c>
       <c r="C14">
-        <v>28.7</v>
+        <v>28.2</v>
       </c>
       <c r="D14" t="s">
         <v>4</v>
@@ -640,7 +640,7 @@
         <v>60</v>
       </c>
       <c r="C15">
-        <v>24.5</v>
+        <v>24</v>
       </c>
       <c r="D15" t="s">
         <v>4</v>
@@ -654,7 +654,7 @@
         <v>65</v>
       </c>
       <c r="C16">
-        <v>20.5</v>
+        <v>20</v>
       </c>
       <c r="D16" t="s">
         <v>4</v>
@@ -668,7 +668,7 @@
         <v>70</v>
       </c>
       <c r="C17">
-        <v>16.7</v>
+        <v>16.2</v>
       </c>
       <c r="D17" t="s">
         <v>4</v>
@@ -682,7 +682,7 @@
         <v>75</v>
       </c>
       <c r="C18">
-        <v>13.2</v>
+        <v>12.6</v>
       </c>
       <c r="D18" t="s">
         <v>4</v>
@@ -696,7 +696,7 @@
         <v>80</v>
       </c>
       <c r="C19">
-        <v>10</v>
+        <v>9.4</v>
       </c>
       <c r="D19" t="s">
         <v>4</v>
@@ -710,7 +710,7 @@
         <v>85</v>
       </c>
       <c r="C20">
-        <v>7.2</v>
+        <v>6.7</v>
       </c>
       <c r="D20" t="s">
         <v>4</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>74.8</v>
+        <v>75.099999999999994</v>
       </c>
       <c r="D21" t="s">
         <v>5</v>
@@ -738,7 +738,7 @@
         <v>1</v>
       </c>
       <c r="C22">
-        <v>74.3</v>
+        <v>74.400000000000006</v>
       </c>
       <c r="D22" t="s">
         <v>5</v>
@@ -752,7 +752,7 @@
         <v>5</v>
       </c>
       <c r="C23">
-        <v>70.400000000000006</v>
+        <v>70.5</v>
       </c>
       <c r="D23" t="s">
         <v>5</v>
@@ -766,7 +766,7 @@
         <v>10</v>
       </c>
       <c r="C24">
-        <v>65.400000000000006</v>
+        <v>65.599999999999994</v>
       </c>
       <c r="D24" t="s">
         <v>5</v>
@@ -780,7 +780,7 @@
         <v>15</v>
       </c>
       <c r="C25">
-        <v>60.5</v>
+        <v>60.6</v>
       </c>
       <c r="D25" t="s">
         <v>5</v>
@@ -794,7 +794,7 @@
         <v>20</v>
       </c>
       <c r="C26">
-        <v>55.7</v>
+        <v>55.8</v>
       </c>
       <c r="D26" t="s">
         <v>5</v>
@@ -864,7 +864,7 @@
         <v>45</v>
       </c>
       <c r="C31">
-        <v>33.4</v>
+        <v>33.299999999999997</v>
       </c>
       <c r="D31" t="s">
         <v>5</v>
@@ -948,7 +948,7 @@
         <v>75</v>
       </c>
       <c r="C37">
-        <v>11</v>
+        <v>10.9</v>
       </c>
       <c r="D37" t="s">
         <v>5</v>
@@ -962,7 +962,7 @@
         <v>80</v>
       </c>
       <c r="C38">
-        <v>8.1</v>
+        <v>8</v>
       </c>
       <c r="D38" t="s">
         <v>5</v>
@@ -976,7 +976,7 @@
         <v>85</v>
       </c>
       <c r="C39">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="D39" t="s">
         <v>5</v>
